--- a/Python Exercises.xlsx
+++ b/Python Exercises.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="17">
   <si>
     <t>Serial No</t>
   </si>
@@ -43,25 +43,46 @@
   </si>
   <si>
     <t>Not Completed</t>
+  </si>
+  <si>
+    <t>https://bit.ly/3UCfIEv</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Sub Topic</t>
+  </si>
+  <si>
+    <t>Input number</t>
+  </si>
+  <si>
+    <t>Split method</t>
+  </si>
+  <si>
+    <t>Write a Program that takes more than two inputs in same line and print them on screen.</t>
+  </si>
+  <si>
+    <t>http://tinyurl.com/m4t55b2f</t>
+  </si>
+  <si>
+    <t>Escape Sequence</t>
+  </si>
+  <si>
+    <t>Write a Program that prints different messages using 10 different escape sequence.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3C4043"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -72,12 +93,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -91,19 +130,19 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -385,121 +424,339 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="85.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="2" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="85.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
